--- a/prelim/PPI Info (Finland).xlsx
+++ b/prelim/PPI Info (Finland).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">borders.border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borders</t>
   </si>
   <si>
     <t xml:space="preserve">national</t>
@@ -50574,9 +50577,11 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -50724,9 +50729,11 @@
       <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -50872,13 +50879,13 @@
         <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -51024,13 +51031,13 @@
         <v>139</v>
       </c>
       <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -51176,13 +51183,13 @@
         <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -51328,13 +51335,13 @@
         <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -51480,13 +51487,13 @@
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F8" t="n">
         <v>0.5</v>
@@ -51632,13 +51639,13 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -51784,13 +51791,13 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -51936,13 +51943,13 @@
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -52088,13 +52095,13 @@
         <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -52240,13 +52247,13 @@
         <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -52392,13 +52399,13 @@
         <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -52544,13 +52551,13 @@
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -52696,13 +52703,13 @@
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -52848,13 +52855,13 @@
         <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -53000,13 +53007,13 @@
         <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -53152,13 +53159,13 @@
         <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -53304,13 +53311,13 @@
         <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" t="n">
         <v>0.625</v>
@@ -53456,13 +53463,13 @@
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -53608,13 +53615,13 @@
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -53760,13 +53767,13 @@
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -53912,13 +53919,13 @@
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" t="n">
         <v>0.75</v>
@@ -54064,13 +54071,13 @@
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -54216,13 +54223,13 @@
         <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -54368,13 +54375,13 @@
         <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -54520,13 +54527,13 @@
         <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -54672,13 +54679,13 @@
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -54824,13 +54831,13 @@
         <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F30" t="n">
         <v>0.75</v>
@@ -54976,13 +54983,13 @@
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
